--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -52,19 +52,31 @@
   <si>
     <t>4hrs</t>
   </si>
+  <si>
+    <t>Servlet program and Components in spring</t>
+  </si>
+  <si>
+    <t>6hrs</t>
+  </si>
+  <si>
+    <t>Rest project</t>
+  </si>
+  <si>
+    <t>5hrs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,11 +101,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -105,16 +124,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -129,13 +141,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,15 +193,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,22 +217,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,6 +230,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -261,7 +266,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,49 +386,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,121 +446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,6 +591,17 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,26 +669,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -687,151 +683,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -855,7 +860,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1178,7 +1183,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1238,7 +1243,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="13">
-        <v>44379</v>
+        <v>44378</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>9</v>
@@ -1251,18 +1256,38 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
+      <c r="B6" s="7">
+        <v>3</v>
+      </c>
+      <c r="C6" s="13">
+        <v>44379</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
+      <c r="B7" s="7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="13">
+        <v>44379</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -64,17 +64,24 @@
   <si>
     <t>5hrs</t>
   </si>
+  <si>
+    <t>Spring Boot program ,mvc architecture</t>
+  </si>
+  <si>
+    <t>Rest api and email services</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -101,18 +108,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -124,9 +124,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,6 +170,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -185,19 +201,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,23 +230,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,7 +273,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,13 +375,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,157 +453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,10 +604,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -621,15 +635,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -645,15 +650,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -665,6 +661,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,161 +691,163 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -861,6 +868,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1183,7 +1191,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1290,18 +1298,38 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="7">
+        <v>5</v>
+      </c>
+      <c r="C8" s="13">
+        <v>44382</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
+      <c r="B9" s="7">
+        <v>6</v>
+      </c>
+      <c r="C9" s="14">
+        <v>44382</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -65,10 +65,19 @@
     <t>5hrs</t>
   </si>
   <si>
+    <t>Spring Boot Application</t>
+  </si>
+  <si>
     <t>Spring Boot program ,mvc architecture</t>
   </si>
   <si>
     <t>Rest api and email services</t>
+  </si>
+  <si>
+    <t>Spring:Controller</t>
+  </si>
+  <si>
+    <t>Drools:Example Code</t>
   </si>
 </sst>
 </file>
@@ -76,12 +85,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="179" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -108,11 +117,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -123,15 +139,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -146,9 +155,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,26 +177,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,10 +208,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,8 +223,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,6 +246,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,13 +260,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -273,7 +282,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,7 +414,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,31 +432,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,127 +456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,15 +607,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,6 +650,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -661,15 +670,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,6 +691,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -702,19 +711,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -723,127 +732,127 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -867,8 +876,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1188,10 +1197,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:F145"/>
+  <dimension ref="B1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1302,7 +1311,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="13">
-        <v>44382</v>
+        <v>44380</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>6</v>
@@ -1311,46 +1320,76 @@
         <v>16</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="7">
         <v>6</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>44382</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="7">
+        <v>7</v>
+      </c>
+      <c r="C10" s="14">
+        <v>44382</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-    </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
+      <c r="B11" s="7">
+        <v>8</v>
+      </c>
+      <c r="C11" s="13">
+        <v>44383</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
+      <c r="B12" s="7">
+        <v>9</v>
+      </c>
+      <c r="C12" s="13">
+        <v>44383</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="7"/>
@@ -2277,11 +2316,18 @@
       <c r="F144" s="9"/>
     </row>
     <row r="145" ht="15.25" spans="2:6">
-      <c r="B145" s="10"/>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
-      <c r="E145" s="11"/>
-      <c r="F145" s="12"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="9"/>
+    </row>
+    <row r="146" ht="15.25" spans="2:6">
+      <c r="B146" s="10"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -79,18 +79,24 @@
   <si>
     <t>Drools:Example Code</t>
   </si>
+  <si>
+    <t>Spring Boot: Array cocept example program.</t>
+  </si>
+  <si>
+    <t>Example for Approval Workflow</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="179" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -117,16 +123,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,14 +135,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,6 +162,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -178,17 +177,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,6 +223,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -223,24 +245,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,7 +288,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,7 +318,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,7 +360,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,43 +378,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,25 +408,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,19 +426,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,43 +456,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,54 +613,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,6 +647,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -711,82 +717,82 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -795,64 +801,64 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -876,8 +882,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1200,7 +1206,7 @@
   <dimension ref="B1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1392,18 +1398,38 @@
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
+      <c r="B13" s="7">
+        <v>10</v>
+      </c>
+      <c r="C13" s="13">
+        <v>44384</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
+      <c r="B14" s="7">
+        <v>11</v>
+      </c>
+      <c r="C14" s="13">
+        <v>44384</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="7"/>
@@ -2315,7 +2341,7 @@
       <c r="E144" s="8"/>
       <c r="F144" s="9"/>
     </row>
-    <row r="145" ht="15.25" spans="2:6">
+    <row r="145" spans="2:6">
       <c r="B145" s="7"/>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -85,18 +85,24 @@
   <si>
     <t>Example for Approval Workflow</t>
   </si>
+  <si>
+    <t>Spring:Examples</t>
+  </si>
+  <si>
+    <t>10hrs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="179" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -123,9 +129,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,7 +152,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,30 +182,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,13 +193,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,15 +228,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,9 +259,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,7 +294,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,7 +318,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,13 +336,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,7 +414,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,103 +456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,25 +474,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,16 +639,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,35 +677,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,151 +696,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -882,8 +888,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1206,7 +1212,7 @@
   <dimension ref="B1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1432,11 +1438,21 @@
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
+      <c r="B15" s="7">
+        <v>12</v>
+      </c>
+      <c r="C15" s="13">
+        <v>44355</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
@@ -1212,7 +1212,7 @@
   <dimension ref="B1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1442,7 +1442,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="13">
-        <v>44355</v>
+        <v>44385</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>6</v>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -91,17 +91,26 @@
   <si>
     <t>10hrs</t>
   </si>
+  <si>
+    <t>Spring with DB and Hibernate concepts</t>
+  </si>
+  <si>
+    <t>Workflow for HR process</t>
+  </si>
+  <si>
+    <t>3hrs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="22">
@@ -129,8 +138,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,6 +163,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,31 +192,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,41 +222,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,6 +254,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -254,20 +277,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,7 +303,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,7 +375,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,49 +429,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,49 +465,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,55 +483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,6 +628,26 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,21 +667,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -668,31 +682,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,6 +715,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -723,148 +732,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -888,7 +897,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1212,7 +1221,7 @@
   <dimension ref="B1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1455,18 +1464,38 @@
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
+      <c r="B16" s="7">
+        <v>13</v>
+      </c>
+      <c r="C16" s="13">
+        <v>44386</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
+      <c r="B17" s="7">
+        <v>14</v>
+      </c>
+      <c r="C17" s="13">
+        <v>44386</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -100,18 +100,33 @@
   <si>
     <t>3hrs</t>
   </si>
+  <si>
+    <t>Rectifying Errors in given jBPM task.</t>
+  </si>
+  <si>
+    <t>8hrs</t>
+  </si>
+  <si>
+    <t>Discussing Interview Questions.</t>
+  </si>
+  <si>
+    <t>9hrs</t>
+  </si>
+  <si>
+    <t>Practising Signal Concepts and Kie server API.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="181" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -138,24 +153,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,21 +162,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,14 +176,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -223,22 +215,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,22 +277,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,13 +318,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,73 +330,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,13 +354,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,13 +462,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,48 +499,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,13 +647,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,6 +667,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,32 +710,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,15 +739,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -732,148 +747,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -897,8 +912,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1221,7 +1236,7 @@
   <dimension ref="B1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1498,25 +1513,55 @@
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
+      <c r="B18" s="7">
+        <v>15</v>
+      </c>
+      <c r="C18" s="13">
+        <v>44389</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
+      <c r="B19" s="7">
+        <v>16</v>
+      </c>
+      <c r="C19" s="13">
+        <v>44390</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
+      <c r="B20" s="7">
+        <v>17</v>
+      </c>
+      <c r="C20" s="13">
+        <v>44391</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -115,16 +115,22 @@
   <si>
     <t>Practising Signal Concepts and Kie server API.</t>
   </si>
+  <si>
+    <t>Preparation for Interview</t>
+  </si>
+  <si>
+    <t>12hrs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="181" formatCode="dd/mmm/yy"/>
   </numFmts>
@@ -154,14 +160,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,7 +175,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,11 +189,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,17 +228,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,23 +264,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,14 +288,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -290,8 +295,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,7 +324,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,7 +354,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,61 +456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,49 +474,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,43 +492,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,6 +653,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -671,17 +707,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,32 +721,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,157 +742,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1235,8 +1241,8 @@
   <sheetPr/>
   <dimension ref="B1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1564,11 +1570,21 @@
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
+      <c r="B21" s="7">
+        <v>18</v>
+      </c>
+      <c r="C21" s="13">
+        <v>44392</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>12hrs</t>
+  </si>
+  <si>
+    <t>Interview</t>
+  </si>
+  <si>
+    <t>core java and jBPM:task,process</t>
   </si>
 </sst>
 </file>
@@ -127,12 +133,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="181" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="179" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -159,8 +165,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,7 +189,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,24 +211,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,53 +242,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,8 +256,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,7 +330,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,19 +438,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,109 +498,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,37 +510,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,17 +659,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,48 +716,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -736,6 +727,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,148 +759,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -918,8 +924,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1242,7 +1248,7 @@
   <dimension ref="B1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1587,11 +1593,21 @@
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
+      <c r="B22" s="7">
+        <v>19</v>
+      </c>
+      <c r="C22" s="13">
+        <v>44393</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>core java and jBPM:task,process</t>
+  </si>
+  <si>
+    <t>VMS:FlowChart</t>
   </si>
 </sst>
 </file>
@@ -133,12 +136,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="179" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -167,16 +170,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -189,7 +207,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,38 +229,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,7 +237,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,15 +260,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,8 +289,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,6 +300,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,7 +333,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,31 +345,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,7 +381,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,85 +465,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,13 +483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,7 +501,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,11 +662,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,11 +695,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,32 +740,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,148 +762,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -924,8 +927,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1247,8 +1250,8 @@
   <sheetPr/>
   <dimension ref="B1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1610,11 +1613,21 @@
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
+      <c r="B23" s="7">
+        <v>20</v>
+      </c>
+      <c r="C23" s="13">
+        <v>44396</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -128,7 +128,10 @@
     <t>core java and jBPM:task,process</t>
   </si>
   <si>
-    <t>VMS:FlowChart</t>
+    <t>VMS:Basic program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMS:login in html </t>
   </si>
 </sst>
 </file>
@@ -136,11 +139,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="22">
@@ -168,9 +171,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,8 +192,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,46 +239,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,15 +278,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,16 +301,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,7 +336,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,13 +354,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,19 +390,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,25 +402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,6 +420,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -435,7 +456,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,13 +480,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,55 +504,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,39 +666,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -706,6 +676,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,17 +721,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,161 +739,174 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -927,7 +930,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1251,7 +1254,7 @@
   <dimension ref="B1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1630,11 +1633,21 @@
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
+      <c r="B24" s="7">
+        <v>21</v>
+      </c>
+      <c r="C24" s="13">
+        <v>44397</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t xml:space="preserve">VMS:login in html </t>
+  </si>
+  <si>
+    <t>Spring Boot: Example program</t>
+  </si>
+  <si>
+    <t>VMS:mysql connection.</t>
   </si>
 </sst>
 </file>
@@ -139,12 +145,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -172,28 +178,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -209,7 +193,29 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,7 +223,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,14 +285,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -287,7 +292,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,15 +306,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,7 +342,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,31 +372,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,13 +408,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,19 +432,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,91 +516,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,32 +686,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -726,6 +706,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,6 +751,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -765,148 +771,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -930,8 +936,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1253,8 +1259,8 @@
   <sheetPr/>
   <dimension ref="B1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1650,18 +1656,38 @@
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
+      <c r="B25" s="7">
+        <v>22</v>
+      </c>
+      <c r="C25" s="13">
+        <v>44398</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
+      <c r="B26" s="7">
+        <v>23</v>
+      </c>
+      <c r="C26" s="13">
+        <v>44398</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="43">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>VMS:mysql connection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revised: Interview Questions </t>
+  </si>
+  <si>
+    <t>vms:program.</t>
   </si>
 </sst>
 </file>
@@ -146,11 +152,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -177,15 +183,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,28 +209,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,15 +223,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,14 +270,43 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,16 +320,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,13 +348,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,13 +366,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,43 +396,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,13 +426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,7 +444,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,25 +510,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,31 +522,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,16 +678,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,21 +740,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -756,6 +747,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -771,7 +777,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -780,139 +792,133 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -936,7 +942,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1260,7 +1266,7 @@
   <dimension ref="B1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1690,18 +1696,38 @@
       </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
+      <c r="B27" s="7">
+        <v>24</v>
+      </c>
+      <c r="C27" s="13">
+        <v>44399</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9"/>
+      <c r="B28" s="7">
+        <v>25</v>
+      </c>
+      <c r="C28" s="13">
+        <v>44399</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>vms:program.</t>
+  </si>
+  <si>
+    <t>Telecom Billing Program</t>
   </si>
 </sst>
 </file>
@@ -151,12 +154,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -183,9 +186,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,38 +254,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -260,25 +293,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,21 +308,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,14 +316,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,7 +351,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,67 +399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,37 +411,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,13 +435,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,7 +471,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,7 +483,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,13 +531,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,17 +680,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,8 +746,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,175 +777,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -942,8 +945,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1266,7 +1269,7 @@
   <dimension ref="B1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1730,11 +1733,21 @@
       </c>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="9"/>
+      <c r="B29" s="7">
+        <v>26</v>
+      </c>
+      <c r="C29" s="13">
+        <v>44400</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
@@ -154,12 +154,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="181" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -186,31 +186,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,14 +209,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,23 +232,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -293,6 +262,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -300,8 +300,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,15 +317,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,19 +351,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,19 +399,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,19 +423,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,43 +459,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,19 +471,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,13 +495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,13 +513,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,30 +680,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -746,8 +722,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,6 +760,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -780,148 +780,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -945,8 +945,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1746,7 +1746,7 @@
         <v>43</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="2:6">

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>Telecom Billing Program</t>
+  </si>
+  <si>
+    <t>Revised:Spring Boot</t>
+  </si>
+  <si>
+    <t>Revised: Gateways,events.</t>
   </si>
 </sst>
 </file>
@@ -154,12 +160,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -200,21 +206,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -226,6 +217,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,21 +293,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -309,7 +300,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,8 +314,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,13 +357,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,121 +501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,31 +525,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,6 +749,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -766,48 +783,37 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -816,112 +822,112 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -945,8 +951,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1269,7 +1275,7 @@
   <dimension ref="B1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1750,18 +1756,38 @@
       </c>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="9"/>
+      <c r="B30" s="7">
+        <v>27</v>
+      </c>
+      <c r="C30" s="13">
+        <v>44403</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="9"/>
+      <c r="B31" s="7">
+        <v>28</v>
+      </c>
+      <c r="C31" s="13">
+        <v>44403</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Revised: Gateways,events.</t>
+  </si>
+  <si>
+    <t>Vms:jdbc connection</t>
   </si>
 </sst>
 </file>
@@ -160,12 +163,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -192,8 +195,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,6 +213,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,16 +233,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,24 +302,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,6 +317,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -330,7 +333,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,25 +360,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,67 +450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,7 +468,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,7 +480,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,13 +492,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,31 +516,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,6 +689,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -706,21 +744,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,17 +772,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -774,28 +786,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -804,130 +807,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -951,8 +954,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1275,7 +1278,7 @@
   <dimension ref="B1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1790,11 +1793,21 @@
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="9"/>
+      <c r="B32" s="7">
+        <v>29</v>
+      </c>
+      <c r="C32" s="13">
+        <v>44404</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
@@ -163,11 +163,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
     <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="22">
@@ -197,7 +197,28 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,14 +233,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,14 +241,21 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,13 +274,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -295,20 +309,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -333,7 +333,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,7 +360,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,61 +456,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,13 +480,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,19 +498,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,37 +516,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,13 +528,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,25 +701,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,26 +739,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -786,151 +777,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -954,7 +954,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1278,7 +1278,7 @@
   <dimension ref="B1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1810,7 +1810,9 @@
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="7"/>
+      <c r="B33" s="7">
+        <v>30</v>
+      </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="49">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>Vms:jdbc connection</t>
+  </si>
+  <si>
+    <t>Vms:program.</t>
+  </si>
+  <si>
+    <t>Vms:Flow Diagram.</t>
   </si>
 </sst>
 </file>
@@ -163,9 +169,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
     <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
@@ -195,9 +201,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,32 +245,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,14 +262,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,6 +284,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -294,18 +308,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,23 +330,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,13 +366,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,13 +384,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,43 +402,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,7 +426,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,13 +444,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,37 +528,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,25 +540,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,17 +695,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -715,6 +710,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -726,15 +739,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,67 +784,69 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -849,88 +855,88 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1278,7 +1284,7 @@
   <dimension ref="B1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1813,17 +1819,35 @@
       <c r="B33" s="7">
         <v>30</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="9"/>
+      <c r="C33" s="13">
+        <v>44405</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
+      <c r="B34" s="7">
+        <v>31</v>
+      </c>
+      <c r="C34" s="13">
+        <v>44405</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="50">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>Vms:Flow Diagram.</t>
+  </si>
+  <si>
+    <t>Revised: Interview Questions.</t>
   </si>
 </sst>
 </file>
@@ -171,8 +174,8 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
     <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
   </numFmts>
@@ -201,11 +204,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,51 +235,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,18 +265,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -309,6 +290,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -316,7 +305,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,15 +328,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,7 +369,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,13 +483,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,67 +519,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,61 +537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,19 +549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,39 +698,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -739,6 +709,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,9 +739,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,159 +789,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1283,8 +1286,8 @@
   <sheetPr/>
   <dimension ref="B1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1850,15 +1853,27 @@
       </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="9"/>
+      <c r="B35" s="7">
+        <v>32</v>
+      </c>
+      <c r="C35" s="13">
+        <v>44406</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
+      <c r="B36" s="7">
+        <v>33</v>
+      </c>
+      <c r="C36" s="13"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="9"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_July_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="51">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Revised: Interview Questions.</t>
+  </si>
+  <si>
+    <t>Core Java Questions.</t>
   </si>
 </sst>
 </file>
@@ -172,12 +175,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -204,6 +207,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -211,18 +229,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,6 +247,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,6 +284,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -273,24 +299,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,15 +316,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,21 +345,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,13 +378,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,13 +426,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,133 +540,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,6 +701,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -737,41 +784,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -786,19 +798,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -807,139 +810,139 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -963,8 +966,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1287,7 +1290,7 @@
   <dimension ref="B1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1873,10 +1876,18 @@
       <c r="B36" s="7">
         <v>33</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="9"/>
+      <c r="C36" s="13">
+        <v>44407</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="7"/>
